--- a/Data/Accident statistic guidance.xlsx
+++ b/Data/Accident statistic guidance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenbaolong/OneDrive - VNU-HCMUS/Term 6/Phân tích dữ liệu thông minh/Bài tập/Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenbaolong/Desktop/TrafficAccidentAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BB5B7510-0CFA-4E47-AA39-83260C71113F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5F8B96-2BE1-3841-806F-9C760EEAAB5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="accidentsguidance" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1200,11 +1200,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1472,13 +1472,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="J12" s="6">
         <v>10</v>
       </c>
@@ -1486,13 +1489,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J13" s="6">
         <v>11</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -1686,16 +1692,6 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
